--- a/Jogos_do_Dia/2024-03-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -151,15 +151,15 @@
     <t>Portugal LigaPro</t>
   </si>
   <si>
+    <t>England Championship</t>
+  </si>
+  <si>
+    <t>England EFL League One</t>
+  </si>
+  <si>
     <t>England EFL League Two</t>
   </si>
   <si>
-    <t>England EFL League One</t>
-  </si>
-  <si>
-    <t>England Championship</t>
-  </si>
-  <si>
     <t>11:00:00</t>
   </si>
   <si>
@@ -184,48 +184,48 @@
     <t>CS Marítimo</t>
   </si>
   <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Leeds United</t>
+  </si>
+  <si>
+    <t>Hull City</t>
+  </si>
+  <si>
+    <t>Coventry City</t>
+  </si>
+  <si>
+    <t>Blackburn Rovers</t>
+  </si>
+  <si>
+    <t>Cheltenham Town</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Sheffield Wednesday</t>
+  </si>
+  <si>
+    <t>Bradford City</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Mansfield Town</t>
+  </si>
+  <si>
     <t>Barrow</t>
   </si>
   <si>
-    <t>Mansfield Town</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Bradford City</t>
-  </si>
-  <si>
-    <t>Barnsley</t>
+    <t>Morecambe</t>
   </si>
   <si>
     <t>Peterborough United</t>
   </si>
   <si>
-    <t>Blackburn Rovers</t>
-  </si>
-  <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
-    <t>Coventry City</t>
-  </si>
-  <si>
-    <t>Hull City</t>
-  </si>
-  <si>
-    <t>Leeds United</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Sheffield Wednesday</t>
-  </si>
-  <si>
-    <t>Cheltenham Town</t>
-  </si>
-  <si>
     <t>Ipswich Town</t>
   </si>
   <si>
@@ -238,46 +238,46 @@
     <t>CF Os Belenenses</t>
   </si>
   <si>
+    <t>Leicester City</t>
+  </si>
+  <si>
+    <t>Stoke City</t>
+  </si>
+  <si>
+    <t>Birmingham City</t>
+  </si>
+  <si>
+    <t>Rotherham United</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Charlton Athletic</t>
+  </si>
+  <si>
+    <t>Bolton Wanderers</t>
+  </si>
+  <si>
+    <t>Plymouth Argyle</t>
+  </si>
+  <si>
+    <t>Doncaster Rovers</t>
+  </si>
+  <si>
+    <t>Grimsby Town</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
     <t>Gillingham</t>
   </si>
   <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
-    <t>Grimsby Town</t>
-  </si>
-  <si>
-    <t>Doncaster Rovers</t>
-  </si>
-  <si>
-    <t>Bolton Wanderers</t>
+    <t>Crawley Town</t>
   </si>
   <si>
     <t>Northampton Town</t>
-  </si>
-  <si>
-    <t>Millwall</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Rotherham United</t>
-  </si>
-  <si>
-    <t>Birmingham City</t>
-  </si>
-  <si>
-    <t>Stoke City</t>
-  </si>
-  <si>
-    <t>Leicester City</t>
-  </si>
-  <si>
-    <t>Plymouth Argyle</t>
-  </si>
-  <si>
-    <t>Charlton Athletic</t>
   </si>
   <si>
     <t>Bristol City</t>
@@ -808,13 +808,13 @@
         <v>5.5</v>
       </c>
       <c r="J2">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K2">
         <v>3.05</v>
       </c>
       <c r="L2">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="M2">
         <v>1.6</v>
@@ -835,10 +835,10 @@
         <v>2.3</v>
       </c>
       <c r="S2">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="T2">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U2">
         <v>2.5</v>
@@ -871,13 +871,13 @@
         <v>2.47</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AH2">
         <v>1.45</v>
@@ -904,10 +904,10 @@
         <v>1.3</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -939,13 +939,13 @@
         <v>3.75</v>
       </c>
       <c r="J3">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="K3">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
         <v>1.42</v>
@@ -966,10 +966,10 @@
         <v>3.1</v>
       </c>
       <c r="S3">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="T3">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="U3">
         <v>1.83</v>
@@ -1017,22 +1017,22 @@
         <v>3.65</v>
       </c>
       <c r="AJ3">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="AK3">
-        <v>2.49</v>
+        <v>2.3</v>
       </c>
       <c r="AL3">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="AM3">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="AN3">
-        <v>2.35</v>
+        <v>2.59</v>
       </c>
       <c r="AO3">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AP3">
         <v>3.2</v>
@@ -1070,13 +1070,13 @@
         <v>7.5</v>
       </c>
       <c r="J4">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="K4">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L4">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M4">
         <v>1.36</v>
@@ -1097,10 +1097,10 @@
         <v>3.6</v>
       </c>
       <c r="S4">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="T4">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U4">
         <v>2.2</v>
@@ -1183,7 +1183,7 @@
         <v>51</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
@@ -1192,115 +1192,115 @@
         <v>74</v>
       </c>
       <c r="G5">
-        <v>2.63</v>
+        <v>4.95</v>
       </c>
       <c r="H5">
+        <v>2.44</v>
+      </c>
+      <c r="I5">
+        <v>2.31</v>
+      </c>
+      <c r="J5">
+        <v>3.5</v>
+      </c>
+      <c r="K5">
+        <v>3.58</v>
+      </c>
+      <c r="L5">
+        <v>2.05</v>
+      </c>
+      <c r="M5">
+        <v>1.33</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>1.02</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>1.22</v>
+      </c>
+      <c r="R5">
+        <v>3.8</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>1.68</v>
+      </c>
+      <c r="V5">
+        <v>2.05</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>1.26</v>
+      </c>
+      <c r="Y5">
+        <v>1.23</v>
+      </c>
+      <c r="Z5">
+        <v>1.76</v>
+      </c>
+      <c r="AA5">
+        <v>2.24</v>
+      </c>
+      <c r="AB5">
+        <v>1.5</v>
+      </c>
+      <c r="AC5">
+        <v>1.39</v>
+      </c>
+      <c r="AD5">
+        <v>2.89</v>
+      </c>
+      <c r="AE5">
         <v>2.1</v>
-      </c>
-      <c r="I5">
-        <v>4.33</v>
-      </c>
-      <c r="J5">
-        <v>2.08</v>
-      </c>
-      <c r="K5">
-        <v>2.86</v>
-      </c>
-      <c r="L5">
-        <v>2.94</v>
-      </c>
-      <c r="M5">
-        <v>1.44</v>
-      </c>
-      <c r="N5">
-        <v>2.63</v>
-      </c>
-      <c r="O5">
-        <v>1.07</v>
-      </c>
-      <c r="P5">
-        <v>7.5</v>
-      </c>
-      <c r="Q5">
-        <v>1.36</v>
-      </c>
-      <c r="R5">
-        <v>3</v>
-      </c>
-      <c r="S5">
-        <v>1.9</v>
-      </c>
-      <c r="T5">
-        <v>1.8</v>
-      </c>
-      <c r="U5">
-        <v>1.83</v>
-      </c>
-      <c r="V5">
-        <v>1.83</v>
-      </c>
-      <c r="W5">
-        <v>1.28</v>
-      </c>
-      <c r="X5">
-        <v>1.25</v>
-      </c>
-      <c r="Y5">
-        <v>1.8</v>
-      </c>
-      <c r="Z5">
-        <v>1.8</v>
-      </c>
-      <c r="AA5">
-        <v>1.47</v>
-      </c>
-      <c r="AB5">
-        <v>1.38</v>
-      </c>
-      <c r="AC5">
-        <v>1.27</v>
-      </c>
-      <c r="AD5">
-        <v>2.65</v>
-      </c>
-      <c r="AE5">
-        <v>1.75</v>
       </c>
       <c r="AF5">
         <v>8</v>
       </c>
       <c r="AG5">
-        <v>2.52</v>
+        <v>1.91</v>
       </c>
       <c r="AH5">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AI5">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="AJ5">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AK5">
-        <v>2.27</v>
+        <v>2.8</v>
       </c>
       <c r="AL5">
-        <v>1.99</v>
+        <v>1.67</v>
       </c>
       <c r="AM5">
-        <v>1.73</v>
+        <v>2.13</v>
       </c>
       <c r="AN5">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="AO5">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="AP5">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="AQ5">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1314,7 +1314,7 @@
         <v>51</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>57</v>
@@ -1323,115 +1323,115 @@
         <v>75</v>
       </c>
       <c r="G6">
-        <v>2.63</v>
+        <v>1.79</v>
       </c>
       <c r="H6">
-        <v>2.3</v>
+        <v>2.76</v>
       </c>
       <c r="I6">
-        <v>3.75</v>
+        <v>7.89</v>
       </c>
       <c r="J6">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="K6">
-        <v>3.55</v>
+        <v>5.05</v>
       </c>
       <c r="L6">
-        <v>4.4</v>
+        <v>7.6</v>
       </c>
       <c r="M6">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="N6">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O6">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P6">
         <v>10</v>
       </c>
       <c r="Q6">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="S6">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="U6">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="V6">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="X6">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="Y6">
+        <v>3.2</v>
+      </c>
+      <c r="Z6">
+        <v>2.53</v>
+      </c>
+      <c r="AA6">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB6">
         <v>1.78</v>
       </c>
-      <c r="Z6">
-        <v>2.06</v>
-      </c>
-      <c r="AA6">
-        <v>1.24</v>
-      </c>
-      <c r="AB6">
-        <v>1.94</v>
-      </c>
       <c r="AC6">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AD6">
-        <v>3.32</v>
+        <v>2.98</v>
       </c>
       <c r="AE6">
-        <v>1.59</v>
+        <v>1.26</v>
       </c>
       <c r="AF6">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AG6">
-        <v>2.89</v>
+        <v>4.64</v>
       </c>
       <c r="AH6">
         <v>1.2</v>
       </c>
       <c r="AI6">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AJ6">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AK6">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="AL6">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AM6">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="AN6">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="AO6">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="AP6">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="AQ6">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1445,7 +1445,7 @@
         <v>51</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
         <v>58</v>
@@ -1454,115 +1454,115 @@
         <v>76</v>
       </c>
       <c r="G7">
-        <v>2.39</v>
+        <v>2.5</v>
       </c>
       <c r="H7">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="I7">
-        <v>4.81</v>
+        <v>4.5</v>
       </c>
       <c r="J7">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="K7">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L7">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="M7">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="N7">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="O7">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q7">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="R7">
-        <v>3.87</v>
+        <v>3.4</v>
       </c>
       <c r="S7">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U7">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="V7">
         <v>2</v>
       </c>
       <c r="W7">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="X7">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="Y7">
         <v>2</v>
       </c>
       <c r="Z7">
+        <v>1.53</v>
+      </c>
+      <c r="AA7">
+        <v>0.65</v>
+      </c>
+      <c r="AB7">
+        <v>1.56</v>
+      </c>
+      <c r="AC7">
+        <v>1.33</v>
+      </c>
+      <c r="AD7">
+        <v>2.89</v>
+      </c>
+      <c r="AE7">
+        <v>1.45</v>
+      </c>
+      <c r="AF7">
+        <v>8.5</v>
+      </c>
+      <c r="AG7">
+        <v>3.2</v>
+      </c>
+      <c r="AH7">
+        <v>1.21</v>
+      </c>
+      <c r="AI7">
+        <v>4.2</v>
+      </c>
+      <c r="AJ7">
+        <v>1.39</v>
+      </c>
+      <c r="AK7">
+        <v>2.85</v>
+      </c>
+      <c r="AL7">
         <v>1.65</v>
       </c>
-      <c r="AA7">
-        <v>0.73</v>
-      </c>
-      <c r="AB7">
-        <v>1.64</v>
-      </c>
-      <c r="AC7">
-        <v>1.31</v>
-      </c>
-      <c r="AD7">
-        <v>2.95</v>
-      </c>
-      <c r="AE7">
-        <v>1.51</v>
-      </c>
-      <c r="AF7">
-        <v>9</v>
-      </c>
-      <c r="AG7">
-        <v>3.06</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>1.48</v>
-      </c>
       <c r="AM7">
-        <v>2.47</v>
+        <v>2.16</v>
       </c>
       <c r="AN7">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="AO7">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="AP7">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="AQ7">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1576,7 +1576,7 @@
         <v>51</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>59</v>
@@ -1585,120 +1585,120 @@
         <v>77</v>
       </c>
       <c r="G8">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="H8">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="I8">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>1.73</v>
+        <v>1.34</v>
       </c>
       <c r="K8">
-        <v>3.45</v>
+        <v>5.1</v>
       </c>
       <c r="L8">
-        <v>4.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M8">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="N8">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>18.25</v>
+      </c>
+      <c r="Q8">
+        <v>1.2</v>
+      </c>
+      <c r="R8">
+        <v>4.65</v>
+      </c>
+      <c r="S8">
+        <v>1.65</v>
+      </c>
+      <c r="T8">
+        <v>2.25</v>
+      </c>
+      <c r="U8">
+        <v>1.9</v>
+      </c>
+      <c r="V8">
+        <v>1.8</v>
+      </c>
+      <c r="W8">
         <v>1.05</v>
       </c>
-      <c r="P8">
-        <v>11</v>
-      </c>
-      <c r="Q8">
-        <v>1.3</v>
-      </c>
-      <c r="R8">
+      <c r="X8">
+        <v>1.12</v>
+      </c>
+      <c r="Y8">
         <v>3.4</v>
       </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
-      <c r="T8">
-        <v>1.8</v>
-      </c>
-      <c r="U8">
-        <v>1.8</v>
-      </c>
-      <c r="V8">
-        <v>1.91</v>
-      </c>
-      <c r="W8">
-        <v>1.22</v>
-      </c>
-      <c r="X8">
-        <v>1.22</v>
-      </c>
-      <c r="Y8">
-        <v>2</v>
-      </c>
       <c r="Z8">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="AA8">
-        <v>0.76</v>
+        <v>0.24</v>
       </c>
       <c r="AB8">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AC8">
-        <v>1.17</v>
+        <v>0.93</v>
       </c>
       <c r="AD8">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="AE8">
-        <v>1.75</v>
+        <v>1.11</v>
       </c>
       <c r="AF8">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AG8">
-        <v>2.43</v>
+        <v>8.15</v>
       </c>
       <c r="AH8">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AI8">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="AJ8">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AK8">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="AL8">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AM8">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="AN8">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="AO8">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AP8">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AQ8">
-        <v>1.41</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="9" spans="1:43">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2">
         <v>45356</v>
@@ -1707,7 +1707,7 @@
         <v>51</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
@@ -1716,115 +1716,115 @@
         <v>78</v>
       </c>
       <c r="G9">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H9">
         <v>2.2</v>
       </c>
       <c r="I9">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="J9">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="K9">
-        <v>3.12</v>
+        <v>3.56</v>
       </c>
       <c r="L9">
-        <v>2.69</v>
+        <v>3.34</v>
       </c>
       <c r="M9">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O9">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q9">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="R9">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S9">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="U9">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="V9">
         <v>2.1</v>
       </c>
       <c r="W9">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X9">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Y9">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="Z9">
-        <v>1.76</v>
+        <v>1.24</v>
       </c>
       <c r="AA9">
-        <v>1.76</v>
+        <v>1.18</v>
       </c>
       <c r="AB9">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="AC9">
-        <v>1.35</v>
+        <v>0.96</v>
       </c>
       <c r="AD9">
-        <v>2.81</v>
+        <v>2.52</v>
       </c>
       <c r="AE9">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AF9">
         <v>8</v>
       </c>
       <c r="AG9">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1838,7 +1838,7 @@
         <v>51</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>61</v>
@@ -1847,120 +1847,120 @@
         <v>79</v>
       </c>
       <c r="G10">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="I10">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="J10">
+        <v>2.6</v>
+      </c>
+      <c r="K10">
+        <v>3.25</v>
+      </c>
+      <c r="L10">
+        <v>2.7</v>
+      </c>
+      <c r="M10">
         <v>1.4</v>
       </c>
-      <c r="K10">
-        <v>4.5</v>
-      </c>
-      <c r="L10">
-        <v>7</v>
-      </c>
-      <c r="M10">
+      <c r="N10">
+        <v>2.75</v>
+      </c>
+      <c r="O10">
+        <v>1.05</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>1.25</v>
+      </c>
+      <c r="R10">
+        <v>3.75</v>
+      </c>
+      <c r="S10">
+        <v>2.05</v>
+      </c>
+      <c r="T10">
+        <v>1.75</v>
+      </c>
+      <c r="U10">
+        <v>1.7</v>
+      </c>
+      <c r="V10">
+        <v>2.05</v>
+      </c>
+      <c r="W10">
+        <v>1.36</v>
+      </c>
+      <c r="X10">
+        <v>1.31</v>
+      </c>
+      <c r="Y10">
+        <v>1.57</v>
+      </c>
+      <c r="Z10">
         <v>1.29</v>
       </c>
-      <c r="N10">
-        <v>3.5</v>
-      </c>
-      <c r="O10">
-        <v>1.02</v>
-      </c>
-      <c r="P10">
-        <v>12</v>
-      </c>
-      <c r="Q10">
-        <v>1.14</v>
-      </c>
-      <c r="R10">
-        <v>4.55</v>
-      </c>
-      <c r="S10">
+      <c r="AA10">
+        <v>0.83</v>
+      </c>
+      <c r="AB10">
+        <v>1.38</v>
+      </c>
+      <c r="AC10">
+        <v>1.28</v>
+      </c>
+      <c r="AD10">
+        <v>2.66</v>
+      </c>
+      <c r="AE10">
+        <v>1.64</v>
+      </c>
+      <c r="AF10">
+        <v>8.5</v>
+      </c>
+      <c r="AG10">
+        <v>2.66</v>
+      </c>
+      <c r="AH10">
+        <v>1.15</v>
+      </c>
+      <c r="AI10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ10">
+        <v>1.3</v>
+      </c>
+      <c r="AK10">
+        <v>3.2</v>
+      </c>
+      <c r="AL10">
+        <v>1.52</v>
+      </c>
+      <c r="AM10">
+        <v>2.37</v>
+      </c>
+      <c r="AN10">
+        <v>1.84</v>
+      </c>
+      <c r="AO10">
+        <v>1.86</v>
+      </c>
+      <c r="AP10">
+        <v>2.3</v>
+      </c>
+      <c r="AQ10">
         <v>1.55</v>
-      </c>
-      <c r="T10">
-        <v>2.3</v>
-      </c>
-      <c r="U10">
-        <v>1.75</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
-      <c r="W10">
-        <v>1.09</v>
-      </c>
-      <c r="X10">
-        <v>1.17</v>
-      </c>
-      <c r="Y10">
-        <v>2.95</v>
-      </c>
-      <c r="Z10">
-        <v>1.94</v>
-      </c>
-      <c r="AA10">
-        <v>1.18</v>
-      </c>
-      <c r="AB10">
-        <v>1.68</v>
-      </c>
-      <c r="AC10">
-        <v>1.06</v>
-      </c>
-      <c r="AD10">
-        <v>2.74</v>
-      </c>
-      <c r="AE10">
-        <v>1.23</v>
-      </c>
-      <c r="AF10">
-        <v>10</v>
-      </c>
-      <c r="AG10">
-        <v>5.15</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>1.82</v>
-      </c>
-      <c r="AM10">
-        <v>1.98</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="2">
         <v>45356</v>
@@ -1969,7 +1969,7 @@
         <v>51</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>62</v>
@@ -1978,115 +1978,115 @@
         <v>80</v>
       </c>
       <c r="G11">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H11">
         <v>2.2</v>
       </c>
       <c r="I11">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="J11">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="K11">
+        <v>3.4</v>
+      </c>
+      <c r="L11">
+        <v>2.6</v>
+      </c>
+      <c r="M11">
+        <v>1.36</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>1.04</v>
+      </c>
+      <c r="P11">
+        <v>12</v>
+      </c>
+      <c r="Q11">
+        <v>1.24</v>
+      </c>
+      <c r="R11">
         <v>3.5</v>
       </c>
-      <c r="L11">
-        <v>3.25</v>
-      </c>
-      <c r="M11">
-        <v>1.38</v>
-      </c>
-      <c r="N11">
-        <v>2.8</v>
-      </c>
-      <c r="O11">
-        <v>1.03</v>
-      </c>
-      <c r="P11">
-        <v>9</v>
-      </c>
-      <c r="Q11">
-        <v>1.29</v>
-      </c>
-      <c r="R11">
-        <v>3.4</v>
-      </c>
       <c r="S11">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T11">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U11">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="V11">
         <v>2.1</v>
       </c>
       <c r="W11">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X11">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y11">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="Z11">
-        <v>1.24</v>
+        <v>1.76</v>
       </c>
       <c r="AA11">
-        <v>1.18</v>
+        <v>1.76</v>
       </c>
       <c r="AB11">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="AC11">
-        <v>0.96</v>
+        <v>1.35</v>
       </c>
       <c r="AD11">
-        <v>2.52</v>
+        <v>2.81</v>
       </c>
       <c r="AE11">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AF11">
         <v>8</v>
       </c>
       <c r="AG11">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2100,7 +2100,7 @@
         <v>51</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
         <v>63</v>
@@ -2109,115 +2109,115 @@
         <v>81</v>
       </c>
       <c r="G12">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="H12">
-        <v>2.23</v>
+        <v>2.33</v>
       </c>
       <c r="I12">
-        <v>3.65</v>
+        <v>4.11</v>
       </c>
       <c r="J12">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="K12">
+        <v>3.54</v>
+      </c>
+      <c r="L12">
+        <v>3.48</v>
+      </c>
+      <c r="M12">
+        <v>1.36</v>
+      </c>
+      <c r="N12">
         <v>3.24</v>
       </c>
-      <c r="L12">
-        <v>2.82</v>
-      </c>
-      <c r="M12">
-        <v>1.33</v>
-      </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
       <c r="O12">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q12">
         <v>1.25</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="S12">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="T12">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="U12">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="V12">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="W12">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="X12">
+        <v>1.25</v>
+      </c>
+      <c r="Y12">
+        <v>1.78</v>
+      </c>
+      <c r="Z12">
         <v>1.29</v>
       </c>
-      <c r="Y12">
-        <v>1.65</v>
-      </c>
-      <c r="Z12">
-        <v>1.56</v>
-      </c>
       <c r="AA12">
-        <v>1.31</v>
+        <v>0.71</v>
       </c>
       <c r="AB12">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AC12">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AD12">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AE12">
+        <v>1.59</v>
+      </c>
+      <c r="AF12">
+        <v>9</v>
+      </c>
+      <c r="AG12">
+        <v>2.77</v>
+      </c>
+      <c r="AH12">
+        <v>1.15</v>
+      </c>
+      <c r="AI12">
+        <v>5</v>
+      </c>
+      <c r="AJ12">
+        <v>1.29</v>
+      </c>
+      <c r="AK12">
+        <v>3.4</v>
+      </c>
+      <c r="AL12">
+        <v>1.5</v>
+      </c>
+      <c r="AM12">
+        <v>2.47</v>
+      </c>
+      <c r="AN12">
         <v>1.82</v>
       </c>
-      <c r="AF12">
-        <v>8</v>
-      </c>
-      <c r="AG12">
-        <v>2.33</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>1.36</v>
-      </c>
-      <c r="AK12">
-        <v>2.9</v>
-      </c>
-      <c r="AL12">
-        <v>1.67</v>
-      </c>
-      <c r="AM12">
-        <v>2.07</v>
-      </c>
-      <c r="AN12">
-        <v>2.1</v>
-      </c>
       <c r="AO12">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="AP12">
-        <v>2.77</v>
+        <v>2.28</v>
       </c>
       <c r="AQ12">
-        <v>1.39</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2231,7 +2231,7 @@
         <v>51</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
         <v>64</v>
@@ -2240,115 +2240,115 @@
         <v>82</v>
       </c>
       <c r="G13">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="H13">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="I13">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="J13">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="K13">
-        <v>5.2</v>
+        <v>3.45</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>3.95</v>
       </c>
       <c r="M13">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="N13">
+        <v>2.75</v>
+      </c>
+      <c r="O13">
+        <v>1.05</v>
+      </c>
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="Q13">
+        <v>1.3</v>
+      </c>
+      <c r="R13">
         <v>3.4</v>
       </c>
-      <c r="O13">
-        <v>1.03</v>
-      </c>
-      <c r="P13">
-        <v>18.25</v>
-      </c>
-      <c r="Q13">
-        <v>1.2</v>
-      </c>
-      <c r="R13">
-        <v>4.65</v>
-      </c>
       <c r="S13">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="T13">
-        <v>2.23</v>
+        <v>1.88</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W13">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="X13">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="Y13">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="Z13">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="AA13">
-        <v>0.24</v>
+        <v>0.76</v>
       </c>
       <c r="AB13">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AC13">
-        <v>0.93</v>
+        <v>1.17</v>
       </c>
       <c r="AD13">
-        <v>2.35</v>
+        <v>2.62</v>
       </c>
       <c r="AE13">
-        <v>1.11</v>
+        <v>1.75</v>
       </c>
       <c r="AF13">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AG13">
-        <v>8.15</v>
+        <v>2.43</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2362,7 +2362,7 @@
         <v>51</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
         <v>65</v>
@@ -2371,85 +2371,85 @@
         <v>83</v>
       </c>
       <c r="G14">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="H14">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="I14">
-        <v>4.5</v>
+        <v>4.81</v>
       </c>
       <c r="J14">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="K14">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L14">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="N14">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O14">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q14">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="R14">
-        <v>3.4</v>
+        <v>3.87</v>
       </c>
       <c r="S14">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="T14">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="U14">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="V14">
         <v>2</v>
       </c>
       <c r="W14">
+        <v>1.17</v>
+      </c>
+      <c r="X14">
         <v>1.22</v>
-      </c>
-      <c r="X14">
-        <v>1.24</v>
       </c>
       <c r="Y14">
         <v>2</v>
       </c>
       <c r="Z14">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AA14">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="AB14">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="AC14">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AD14">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="AE14">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="AF14">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG14">
-        <v>3.2</v>
+        <v>3.06</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -2458,28 +2458,28 @@
         <v>0</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2493,7 +2493,7 @@
         <v>51</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
         <v>66</v>
@@ -2502,115 +2502,115 @@
         <v>84</v>
       </c>
       <c r="G15">
-        <v>1.79</v>
+        <v>2.63</v>
       </c>
       <c r="H15">
-        <v>2.76</v>
+        <v>2.3</v>
       </c>
       <c r="I15">
-        <v>7.89</v>
+        <v>3.75</v>
       </c>
       <c r="J15">
-        <v>1.36</v>
+        <v>1.71</v>
       </c>
       <c r="K15">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="M15">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="N15">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O15">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P15">
         <v>10</v>
       </c>
       <c r="Q15">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="R15">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="T15">
-        <v>2.33</v>
+        <v>2.17</v>
       </c>
       <c r="U15">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="V15">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="W15">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="X15">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="Y15">
-        <v>3.2</v>
+        <v>1.78</v>
       </c>
       <c r="Z15">
-        <v>2.53</v>
+        <v>2.06</v>
       </c>
       <c r="AA15">
-        <v>0.9399999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="AB15">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AC15">
+        <v>1.36</v>
+      </c>
+      <c r="AD15">
+        <v>3.3</v>
+      </c>
+      <c r="AE15">
+        <v>1.59</v>
+      </c>
+      <c r="AF15">
+        <v>8.5</v>
+      </c>
+      <c r="AG15">
+        <v>2.89</v>
+      </c>
+      <c r="AH15">
         <v>1.2</v>
       </c>
-      <c r="AD15">
-        <v>2.98</v>
-      </c>
-      <c r="AE15">
-        <v>1.26</v>
-      </c>
-      <c r="AF15">
-        <v>10</v>
-      </c>
-      <c r="AG15">
-        <v>4.64</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
       <c r="AI15">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2624,7 +2624,7 @@
         <v>51</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
         <v>67</v>
@@ -2633,115 +2633,115 @@
         <v>85</v>
       </c>
       <c r="G16">
-        <v>4.95</v>
+        <v>2.63</v>
       </c>
       <c r="H16">
-        <v>2.44</v>
+        <v>2.1</v>
       </c>
       <c r="I16">
-        <v>2.31</v>
+        <v>4.33</v>
       </c>
       <c r="J16">
-        <v>4.1</v>
+        <v>2.04</v>
       </c>
       <c r="K16">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="L16">
-        <v>1.79</v>
+        <v>3.15</v>
       </c>
       <c r="M16">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="N16">
+        <v>2.63</v>
+      </c>
+      <c r="O16">
+        <v>1.07</v>
+      </c>
+      <c r="P16">
+        <v>7.5</v>
+      </c>
+      <c r="Q16">
+        <v>1.36</v>
+      </c>
+      <c r="R16">
         <v>3</v>
       </c>
-      <c r="O16">
-        <v>1.02</v>
-      </c>
-      <c r="P16">
-        <v>10</v>
-      </c>
-      <c r="Q16">
-        <v>1.22</v>
-      </c>
-      <c r="R16">
-        <v>3.8</v>
-      </c>
       <c r="S16">
+        <v>2.13</v>
+      </c>
+      <c r="T16">
+        <v>1.63</v>
+      </c>
+      <c r="U16">
+        <v>1.83</v>
+      </c>
+      <c r="V16">
+        <v>1.83</v>
+      </c>
+      <c r="W16">
+        <v>1.28</v>
+      </c>
+      <c r="X16">
+        <v>1.25</v>
+      </c>
+      <c r="Y16">
+        <v>1.8</v>
+      </c>
+      <c r="Z16">
+        <v>1.8</v>
+      </c>
+      <c r="AA16">
+        <v>1.47</v>
+      </c>
+      <c r="AB16">
+        <v>1.38</v>
+      </c>
+      <c r="AC16">
+        <v>1.26</v>
+      </c>
+      <c r="AD16">
+        <v>2.64</v>
+      </c>
+      <c r="AE16">
         <v>1.75</v>
-      </c>
-      <c r="T16">
-        <v>2.08</v>
-      </c>
-      <c r="U16">
-        <v>1.68</v>
-      </c>
-      <c r="V16">
-        <v>2.05</v>
-      </c>
-      <c r="W16">
-        <v>2</v>
-      </c>
-      <c r="X16">
-        <v>1.26</v>
-      </c>
-      <c r="Y16">
-        <v>1.23</v>
-      </c>
-      <c r="Z16">
-        <v>1.76</v>
-      </c>
-      <c r="AA16">
-        <v>2.24</v>
-      </c>
-      <c r="AB16">
-        <v>1.5</v>
-      </c>
-      <c r="AC16">
-        <v>1.39</v>
-      </c>
-      <c r="AD16">
-        <v>2.89</v>
-      </c>
-      <c r="AE16">
-        <v>2.1</v>
       </c>
       <c r="AF16">
         <v>8</v>
       </c>
       <c r="AG16">
-        <v>1.91</v>
+        <v>2.52</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2755,7 +2755,7 @@
         <v>51</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>68</v>
@@ -2764,115 +2764,115 @@
         <v>86</v>
       </c>
       <c r="G17">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="H17">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="I17">
-        <v>4.11</v>
+        <v>3.65</v>
       </c>
       <c r="J17">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="K17">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L17">
-        <v>3.45</v>
+        <v>2.89</v>
       </c>
       <c r="M17">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N17">
-        <v>3.24</v>
+        <v>3</v>
       </c>
       <c r="O17">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q17">
         <v>1.25</v>
       </c>
       <c r="R17">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="S17">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="T17">
         <v>1.98</v>
       </c>
       <c r="U17">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="V17">
+        <v>2.22</v>
+      </c>
+      <c r="W17">
+        <v>1.37</v>
+      </c>
+      <c r="X17">
+        <v>1.29</v>
+      </c>
+      <c r="Y17">
+        <v>1.65</v>
+      </c>
+      <c r="Z17">
+        <v>1.56</v>
+      </c>
+      <c r="AA17">
+        <v>1.31</v>
+      </c>
+      <c r="AB17">
+        <v>1.25</v>
+      </c>
+      <c r="AC17">
+        <v>1.25</v>
+      </c>
+      <c r="AD17">
+        <v>2.5</v>
+      </c>
+      <c r="AE17">
+        <v>1.82</v>
+      </c>
+      <c r="AF17">
+        <v>8</v>
+      </c>
+      <c r="AG17">
+        <v>2.33</v>
+      </c>
+      <c r="AH17">
+        <v>1.17</v>
+      </c>
+      <c r="AI17">
+        <v>4.5</v>
+      </c>
+      <c r="AJ17">
+        <v>1.36</v>
+      </c>
+      <c r="AK17">
+        <v>2.9</v>
+      </c>
+      <c r="AL17">
+        <v>1.67</v>
+      </c>
+      <c r="AM17">
+        <v>2.07</v>
+      </c>
+      <c r="AN17">
         <v>2.1</v>
       </c>
-      <c r="W17">
-        <v>1.33</v>
-      </c>
-      <c r="X17">
-        <v>1.25</v>
-      </c>
-      <c r="Y17">
-        <v>1.78</v>
-      </c>
-      <c r="Z17">
-        <v>1.29</v>
-      </c>
-      <c r="AA17">
-        <v>0.71</v>
-      </c>
-      <c r="AB17">
-        <v>1.28</v>
-      </c>
-      <c r="AC17">
-        <v>1.19</v>
-      </c>
-      <c r="AD17">
-        <v>2.47</v>
-      </c>
-      <c r="AE17">
-        <v>1.59</v>
-      </c>
-      <c r="AF17">
-        <v>9</v>
-      </c>
-      <c r="AG17">
+      <c r="AO17">
+        <v>1.65</v>
+      </c>
+      <c r="AP17">
         <v>2.77</v>
       </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -2886,7 +2886,7 @@
         <v>51</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
         <v>69</v>
@@ -2895,120 +2895,120 @@
         <v>87</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="H18">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="I18">
+        <v>6.5</v>
+      </c>
+      <c r="J18">
+        <v>1.41</v>
+      </c>
+      <c r="K18">
+        <v>4.6</v>
+      </c>
+      <c r="L18">
+        <v>7.43</v>
+      </c>
+      <c r="M18">
+        <v>1.29</v>
+      </c>
+      <c r="N18">
         <v>3.5</v>
       </c>
-      <c r="J18">
-        <v>2.39</v>
-      </c>
-      <c r="K18">
-        <v>3.12</v>
-      </c>
-      <c r="L18">
-        <v>2.62</v>
-      </c>
-      <c r="M18">
-        <v>1.4</v>
-      </c>
-      <c r="N18">
-        <v>2.75</v>
-      </c>
       <c r="O18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q18">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="R18">
-        <v>3.75</v>
+        <v>4.55</v>
       </c>
       <c r="S18">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="T18">
-        <v>1.88</v>
+        <v>2.35</v>
       </c>
       <c r="U18">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V18">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W18">
+        <v>1.09</v>
+      </c>
+      <c r="X18">
+        <v>1.17</v>
+      </c>
+      <c r="Y18">
+        <v>2.95</v>
+      </c>
+      <c r="Z18">
+        <v>1.94</v>
+      </c>
+      <c r="AA18">
+        <v>1.18</v>
+      </c>
+      <c r="AB18">
+        <v>1.68</v>
+      </c>
+      <c r="AC18">
+        <v>1.06</v>
+      </c>
+      <c r="AD18">
+        <v>2.74</v>
+      </c>
+      <c r="AE18">
+        <v>1.23</v>
+      </c>
+      <c r="AF18">
+        <v>10</v>
+      </c>
+      <c r="AG18">
+        <v>5.15</v>
+      </c>
+      <c r="AH18">
+        <v>1.19</v>
+      </c>
+      <c r="AI18">
+        <v>4.2</v>
+      </c>
+      <c r="AJ18">
         <v>1.36</v>
       </c>
-      <c r="X18">
-        <v>1.31</v>
-      </c>
-      <c r="Y18">
-        <v>1.57</v>
-      </c>
-      <c r="Z18">
-        <v>1.29</v>
-      </c>
-      <c r="AA18">
-        <v>0.83</v>
-      </c>
-      <c r="AB18">
-        <v>1.41</v>
-      </c>
-      <c r="AC18">
-        <v>1.27</v>
-      </c>
-      <c r="AD18">
-        <v>2.68</v>
-      </c>
-      <c r="AE18">
-        <v>1.64</v>
-      </c>
-      <c r="AF18">
-        <v>8.5</v>
-      </c>
-      <c r="AG18">
-        <v>2.66</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AQ18">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2">
         <v>45356</v>
@@ -3035,13 +3035,13 @@
         <v>5.5</v>
       </c>
       <c r="J19">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="K19">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L19">
-        <v>5.5</v>
+        <v>5.71</v>
       </c>
       <c r="M19">
         <v>1.36</v>
@@ -3062,7 +3062,7 @@
         <v>4</v>
       </c>
       <c r="S19">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="T19">
         <v>2</v>
@@ -3107,22 +3107,22 @@
         <v>3.28</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AK19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AM19">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AN19">
         <v>2</v>
@@ -3131,10 +3131,10 @@
         <v>1.8</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2024-03-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -151,15 +151,15 @@
     <t>Portugal LigaPro</t>
   </si>
   <si>
+    <t>England EFL League Two</t>
+  </si>
+  <si>
+    <t>England EFL League One</t>
+  </si>
+  <si>
     <t>England Championship</t>
   </si>
   <si>
-    <t>England EFL League One</t>
-  </si>
-  <si>
-    <t>England EFL League Two</t>
-  </si>
-  <si>
     <t>11:00:00</t>
   </si>
   <si>
@@ -184,48 +184,48 @@
     <t>CS Marítimo</t>
   </si>
   <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Mansfield Town</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Bradford City</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Peterborough United</t>
+  </si>
+  <si>
+    <t>Blackburn Rovers</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Coventry City</t>
+  </si>
+  <si>
+    <t>Hull City</t>
+  </si>
+  <si>
+    <t>Leeds United</t>
+  </si>
+  <si>
     <t>Sunderland</t>
   </si>
   <si>
-    <t>Leeds United</t>
-  </si>
-  <si>
-    <t>Hull City</t>
-  </si>
-  <si>
-    <t>Coventry City</t>
-  </si>
-  <si>
-    <t>Blackburn Rovers</t>
+    <t>Sheffield Wednesday</t>
   </si>
   <si>
     <t>Cheltenham Town</t>
   </si>
   <si>
-    <t>Barnsley</t>
-  </si>
-  <si>
-    <t>Sheffield Wednesday</t>
-  </si>
-  <si>
-    <t>Bradford City</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Mansfield Town</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
-    <t>Peterborough United</t>
-  </si>
-  <si>
     <t>Ipswich Town</t>
   </si>
   <si>
@@ -238,46 +238,46 @@
     <t>CF Os Belenenses</t>
   </si>
   <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Grimsby Town</t>
+  </si>
+  <si>
+    <t>Doncaster Rovers</t>
+  </si>
+  <si>
+    <t>Bolton Wanderers</t>
+  </si>
+  <si>
+    <t>Northampton Town</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Rotherham United</t>
+  </si>
+  <si>
+    <t>Birmingham City</t>
+  </si>
+  <si>
+    <t>Stoke City</t>
+  </si>
+  <si>
     <t>Leicester City</t>
   </si>
   <si>
-    <t>Stoke City</t>
-  </si>
-  <si>
-    <t>Birmingham City</t>
-  </si>
-  <si>
-    <t>Rotherham United</t>
-  </si>
-  <si>
-    <t>Millwall</t>
+    <t>Plymouth Argyle</t>
   </si>
   <si>
     <t>Charlton Athletic</t>
-  </si>
-  <si>
-    <t>Bolton Wanderers</t>
-  </si>
-  <si>
-    <t>Plymouth Argyle</t>
-  </si>
-  <si>
-    <t>Doncaster Rovers</t>
-  </si>
-  <si>
-    <t>Grimsby Town</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Northampton Town</t>
   </si>
   <si>
     <t>Bristol City</t>
@@ -799,22 +799,22 @@
         <v>71</v>
       </c>
       <c r="G2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H2">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="I2">
         <v>5.5</v>
       </c>
       <c r="J2">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="K2">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="M2">
         <v>1.6</v>
@@ -933,16 +933,16 @@
         <v>2.75</v>
       </c>
       <c r="H3">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="J3">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K3">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L3">
         <v>3.25</v>
@@ -966,16 +966,16 @@
         <v>3.1</v>
       </c>
       <c r="S3">
-        <v>1.96</v>
+        <v>2.15</v>
       </c>
       <c r="T3">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="U3">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W3">
         <v>1.18</v>
@@ -1023,7 +1023,7 @@
         <v>2.3</v>
       </c>
       <c r="AL3">
-        <v>2.01</v>
+        <v>2.38</v>
       </c>
       <c r="AM3">
         <v>1.79</v>
@@ -1073,10 +1073,10 @@
         <v>1.36</v>
       </c>
       <c r="K4">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M4">
         <v>1.36</v>
@@ -1097,10 +1097,10 @@
         <v>3.6</v>
       </c>
       <c r="S4">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U4">
         <v>2.2</v>
@@ -1183,7 +1183,7 @@
         <v>51</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
@@ -1192,115 +1192,115 @@
         <v>74</v>
       </c>
       <c r="G5">
-        <v>4.95</v>
+        <v>2.63</v>
       </c>
       <c r="H5">
-        <v>2.44</v>
+        <v>2.1</v>
       </c>
       <c r="I5">
-        <v>2.31</v>
+        <v>4.33</v>
       </c>
       <c r="J5">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="K5">
-        <v>3.58</v>
+        <v>3.2</v>
       </c>
       <c r="L5">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="N5">
+        <v>2.63</v>
+      </c>
+      <c r="O5">
+        <v>1.07</v>
+      </c>
+      <c r="P5">
+        <v>7.5</v>
+      </c>
+      <c r="Q5">
+        <v>1.36</v>
+      </c>
+      <c r="R5">
         <v>3</v>
       </c>
-      <c r="O5">
-        <v>1.02</v>
-      </c>
-      <c r="P5">
-        <v>10</v>
-      </c>
-      <c r="Q5">
-        <v>1.22</v>
-      </c>
-      <c r="R5">
-        <v>3.8</v>
-      </c>
       <c r="S5">
+        <v>2.3</v>
+      </c>
+      <c r="T5">
+        <v>1.57</v>
+      </c>
+      <c r="U5">
+        <v>1.83</v>
+      </c>
+      <c r="V5">
+        <v>1.83</v>
+      </c>
+      <c r="W5">
+        <v>1.28</v>
+      </c>
+      <c r="X5">
+        <v>1.25</v>
+      </c>
+      <c r="Y5">
         <v>1.8</v>
       </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <v>1.68</v>
-      </c>
-      <c r="V5">
-        <v>2.05</v>
-      </c>
-      <c r="W5">
-        <v>2</v>
-      </c>
-      <c r="X5">
+      <c r="Z5">
+        <v>1.8</v>
+      </c>
+      <c r="AA5">
+        <v>1.47</v>
+      </c>
+      <c r="AB5">
+        <v>1.38</v>
+      </c>
+      <c r="AC5">
         <v>1.26</v>
       </c>
-      <c r="Y5">
-        <v>1.23</v>
-      </c>
-      <c r="Z5">
-        <v>1.76</v>
-      </c>
-      <c r="AA5">
-        <v>2.24</v>
-      </c>
-      <c r="AB5">
-        <v>1.5</v>
-      </c>
-      <c r="AC5">
-        <v>1.39</v>
-      </c>
       <c r="AD5">
-        <v>2.89</v>
+        <v>2.64</v>
       </c>
       <c r="AE5">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="AF5">
         <v>8</v>
       </c>
       <c r="AG5">
-        <v>1.91</v>
+        <v>2.52</v>
       </c>
       <c r="AH5">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AI5">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="AJ5">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AK5">
-        <v>2.8</v>
+        <v>2.27</v>
       </c>
       <c r="AL5">
-        <v>1.67</v>
+        <v>1.99</v>
       </c>
       <c r="AM5">
-        <v>2.13</v>
+        <v>1.73</v>
       </c>
       <c r="AN5">
-        <v>2.08</v>
+        <v>2.62</v>
       </c>
       <c r="AO5">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="AP5">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="AQ5">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1314,7 +1314,7 @@
         <v>51</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>57</v>
@@ -1323,115 +1323,115 @@
         <v>75</v>
       </c>
       <c r="G6">
-        <v>1.79</v>
+        <v>2.63</v>
       </c>
       <c r="H6">
-        <v>2.76</v>
+        <v>2.3</v>
       </c>
       <c r="I6">
-        <v>7.89</v>
+        <v>3.75</v>
       </c>
       <c r="J6">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="K6">
-        <v>5.05</v>
+        <v>3.8</v>
       </c>
       <c r="L6">
-        <v>7.6</v>
+        <v>4.4</v>
       </c>
       <c r="M6">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="N6">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O6">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P6">
         <v>10</v>
       </c>
       <c r="Q6">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="R6">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="S6">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="T6">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="U6">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="W6">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="X6">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="Y6">
-        <v>3.2</v>
+        <v>1.78</v>
       </c>
       <c r="Z6">
-        <v>2.53</v>
+        <v>2.06</v>
       </c>
       <c r="AA6">
-        <v>0.9399999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="AB6">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AC6">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AD6">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="AE6">
-        <v>1.26</v>
+        <v>1.59</v>
       </c>
       <c r="AF6">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AG6">
-        <v>4.64</v>
+        <v>2.89</v>
       </c>
       <c r="AH6">
         <v>1.2</v>
       </c>
       <c r="AI6">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AJ6">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AK6">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="AL6">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AM6">
+        <v>1.98</v>
+      </c>
+      <c r="AN6">
         <v>2.2</v>
       </c>
-      <c r="AN6">
-        <v>2.02</v>
-      </c>
       <c r="AO6">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="AP6">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="AQ6">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1445,7 +1445,7 @@
         <v>51</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>58</v>
@@ -1454,115 +1454,115 @@
         <v>76</v>
       </c>
       <c r="G7">
-        <v>2.5</v>
+        <v>2.39</v>
       </c>
       <c r="H7">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="I7">
-        <v>4.5</v>
+        <v>4.81</v>
       </c>
       <c r="J7">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="K7">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L7">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="M7">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="N7">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O7">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q7">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="R7">
-        <v>3.4</v>
+        <v>3.87</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T7">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U7">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="V7">
         <v>2</v>
       </c>
       <c r="W7">
+        <v>1.17</v>
+      </c>
+      <c r="X7">
         <v>1.22</v>
-      </c>
-      <c r="X7">
-        <v>1.24</v>
       </c>
       <c r="Y7">
         <v>2</v>
       </c>
       <c r="Z7">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AA7">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="AB7">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="AC7">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AD7">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="AE7">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="AF7">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG7">
-        <v>3.2</v>
+        <v>3.06</v>
       </c>
       <c r="AH7">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AI7">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="AJ7">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AK7">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="AL7">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="AM7">
-        <v>2.16</v>
+        <v>2.47</v>
       </c>
       <c r="AN7">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="AO7">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="AP7">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="AQ7">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -1576,7 +1576,7 @@
         <v>51</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>59</v>
@@ -1585,120 +1585,120 @@
         <v>77</v>
       </c>
       <c r="G8">
+        <v>2.4</v>
+      </c>
+      <c r="H8">
+        <v>2.2</v>
+      </c>
+      <c r="I8">
+        <v>4.5</v>
+      </c>
+      <c r="J8">
+        <v>1.83</v>
+      </c>
+      <c r="K8">
+        <v>3.6</v>
+      </c>
+      <c r="L8">
+        <v>4.2</v>
+      </c>
+      <c r="M8">
+        <v>1.4</v>
+      </c>
+      <c r="N8">
+        <v>2.75</v>
+      </c>
+      <c r="O8">
+        <v>1.05</v>
+      </c>
+      <c r="P8">
+        <v>11</v>
+      </c>
+      <c r="Q8">
+        <v>1.3</v>
+      </c>
+      <c r="R8">
+        <v>3.4</v>
+      </c>
+      <c r="S8">
+        <v>1.95</v>
+      </c>
+      <c r="T8">
         <v>1.78</v>
       </c>
-      <c r="H8">
-        <v>2.5</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-      <c r="J8">
-        <v>1.34</v>
-      </c>
-      <c r="K8">
-        <v>5.1</v>
-      </c>
-      <c r="L8">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="M8">
-        <v>1.28</v>
-      </c>
-      <c r="N8">
-        <v>3.4</v>
-      </c>
-      <c r="O8">
-        <v>1.03</v>
-      </c>
-      <c r="P8">
-        <v>18.25</v>
-      </c>
-      <c r="Q8">
-        <v>1.2</v>
-      </c>
-      <c r="R8">
-        <v>4.65</v>
-      </c>
-      <c r="S8">
-        <v>1.65</v>
-      </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
       <c r="U8">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W8">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="X8">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="Y8">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="Z8">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="AA8">
-        <v>0.24</v>
+        <v>0.76</v>
       </c>
       <c r="AB8">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AC8">
-        <v>0.93</v>
+        <v>1.17</v>
       </c>
       <c r="AD8">
-        <v>2.35</v>
+        <v>2.62</v>
       </c>
       <c r="AE8">
-        <v>1.11</v>
+        <v>1.75</v>
       </c>
       <c r="AF8">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AG8">
-        <v>8.15</v>
+        <v>2.43</v>
       </c>
       <c r="AH8">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AI8">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="AJ8">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AK8">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="AL8">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AM8">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="AN8">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="AO8">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="AP8">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AQ8">
-        <v>1.69</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="9" spans="1:43">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2">
         <v>45356</v>
@@ -1707,7 +1707,7 @@
         <v>51</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>60</v>
@@ -1716,115 +1716,115 @@
         <v>78</v>
       </c>
       <c r="G9">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H9">
         <v>2.2</v>
       </c>
       <c r="I9">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="J9">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="K9">
-        <v>3.56</v>
+        <v>3.5</v>
       </c>
       <c r="L9">
-        <v>3.34</v>
+        <v>2.88</v>
       </c>
       <c r="M9">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="N9">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q9">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="R9">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S9">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="T9">
         <v>1.95</v>
       </c>
       <c r="U9">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="V9">
         <v>2.1</v>
       </c>
       <c r="W9">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X9">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y9">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="Z9">
-        <v>1.24</v>
+        <v>1.76</v>
       </c>
       <c r="AA9">
-        <v>1.18</v>
+        <v>1.76</v>
       </c>
       <c r="AB9">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="AC9">
-        <v>0.96</v>
+        <v>1.35</v>
       </c>
       <c r="AD9">
-        <v>2.52</v>
+        <v>2.81</v>
       </c>
       <c r="AE9">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AF9">
         <v>8</v>
       </c>
       <c r="AG9">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="AH9">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AI9">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AJ9">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="AK9">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AL9">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AM9">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="AN9">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AO9">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AP9">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="AQ9">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1838,7 +1838,7 @@
         <v>51</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>61</v>
@@ -1847,120 +1847,120 @@
         <v>79</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="H10">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="I10">
+        <v>6.5</v>
+      </c>
+      <c r="J10">
+        <v>1.36</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>7.5</v>
+      </c>
+      <c r="M10">
+        <v>1.29</v>
+      </c>
+      <c r="N10">
         <v>3.5</v>
       </c>
-      <c r="J10">
-        <v>2.6</v>
-      </c>
-      <c r="K10">
-        <v>3.25</v>
-      </c>
-      <c r="L10">
-        <v>2.7</v>
-      </c>
-      <c r="M10">
-        <v>1.4</v>
-      </c>
-      <c r="N10">
-        <v>2.75</v>
-      </c>
       <c r="O10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="R10">
-        <v>3.75</v>
+        <v>4.55</v>
       </c>
       <c r="S10">
-        <v>2.05</v>
+        <v>1.53</v>
       </c>
       <c r="T10">
+        <v>2.38</v>
+      </c>
+      <c r="U10">
         <v>1.75</v>
       </c>
-      <c r="U10">
-        <v>1.7</v>
-      </c>
       <c r="V10">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W10">
+        <v>1.09</v>
+      </c>
+      <c r="X10">
+        <v>1.17</v>
+      </c>
+      <c r="Y10">
+        <v>2.95</v>
+      </c>
+      <c r="Z10">
+        <v>1.94</v>
+      </c>
+      <c r="AA10">
+        <v>1.18</v>
+      </c>
+      <c r="AB10">
+        <v>1.68</v>
+      </c>
+      <c r="AC10">
+        <v>1.06</v>
+      </c>
+      <c r="AD10">
+        <v>2.74</v>
+      </c>
+      <c r="AE10">
+        <v>1.23</v>
+      </c>
+      <c r="AF10">
+        <v>10</v>
+      </c>
+      <c r="AG10">
+        <v>5.15</v>
+      </c>
+      <c r="AH10">
+        <v>1.19</v>
+      </c>
+      <c r="AI10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ10">
         <v>1.36</v>
       </c>
-      <c r="X10">
-        <v>1.31</v>
-      </c>
-      <c r="Y10">
-        <v>1.57</v>
-      </c>
-      <c r="Z10">
-        <v>1.29</v>
-      </c>
-      <c r="AA10">
-        <v>0.83</v>
-      </c>
-      <c r="AB10">
-        <v>1.38</v>
-      </c>
-      <c r="AC10">
-        <v>1.28</v>
-      </c>
-      <c r="AD10">
-        <v>2.66</v>
-      </c>
-      <c r="AE10">
-        <v>1.64</v>
-      </c>
-      <c r="AF10">
-        <v>8.5</v>
-      </c>
-      <c r="AG10">
-        <v>2.66</v>
-      </c>
-      <c r="AH10">
-        <v>1.15</v>
-      </c>
-      <c r="AI10">
-        <v>4.7</v>
-      </c>
-      <c r="AJ10">
-        <v>1.3</v>
-      </c>
       <c r="AK10">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AL10">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="AM10">
-        <v>2.37</v>
+        <v>1.98</v>
       </c>
       <c r="AN10">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="AO10">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AP10">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="AQ10">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="11" spans="1:43">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2">
         <v>45356</v>
@@ -1969,7 +1969,7 @@
         <v>51</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
         <v>62</v>
@@ -1978,115 +1978,115 @@
         <v>80</v>
       </c>
       <c r="G11">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H11">
         <v>2.2</v>
       </c>
       <c r="I11">
+        <v>3.75</v>
+      </c>
+      <c r="J11">
+        <v>2.25</v>
+      </c>
+      <c r="K11">
+        <v>3.3</v>
+      </c>
+      <c r="L11">
         <v>3.25</v>
       </c>
-      <c r="J11">
-        <v>2.6</v>
-      </c>
-      <c r="K11">
+      <c r="M11">
+        <v>1.38</v>
+      </c>
+      <c r="N11">
+        <v>2.8</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>1.29</v>
+      </c>
+      <c r="R11">
         <v>3.4</v>
       </c>
-      <c r="L11">
-        <v>2.6</v>
-      </c>
-      <c r="M11">
-        <v>1.36</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-      <c r="O11">
-        <v>1.04</v>
-      </c>
-      <c r="P11">
-        <v>12</v>
-      </c>
-      <c r="Q11">
-        <v>1.24</v>
-      </c>
-      <c r="R11">
-        <v>3.5</v>
-      </c>
       <c r="S11">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="T11">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="U11">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="V11">
         <v>2.1</v>
       </c>
       <c r="W11">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X11">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Y11">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="Z11">
-        <v>1.76</v>
+        <v>1.24</v>
       </c>
       <c r="AA11">
-        <v>1.76</v>
+        <v>1.18</v>
       </c>
       <c r="AB11">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="AC11">
-        <v>1.35</v>
+        <v>0.96</v>
       </c>
       <c r="AD11">
-        <v>2.81</v>
+        <v>2.52</v>
       </c>
       <c r="AE11">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AF11">
         <v>8</v>
       </c>
       <c r="AG11">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="AH11">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AI11">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="AJ11">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AK11">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AL11">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AM11">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="AN11">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AO11">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AP11">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="AQ11">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2100,7 +2100,7 @@
         <v>51</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>63</v>
@@ -2109,115 +2109,115 @@
         <v>81</v>
       </c>
       <c r="G12">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="H12">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="I12">
-        <v>4.11</v>
+        <v>3.65</v>
       </c>
       <c r="J12">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="K12">
-        <v>3.54</v>
+        <v>3.6</v>
       </c>
       <c r="L12">
-        <v>3.48</v>
+        <v>3.1</v>
       </c>
       <c r="M12">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N12">
-        <v>3.24</v>
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q12">
         <v>1.25</v>
       </c>
       <c r="R12">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="S12">
+        <v>1.7</v>
+      </c>
+      <c r="T12">
+        <v>2.05</v>
+      </c>
+      <c r="U12">
+        <v>1.63</v>
+      </c>
+      <c r="V12">
+        <v>2.22</v>
+      </c>
+      <c r="W12">
+        <v>1.37</v>
+      </c>
+      <c r="X12">
+        <v>1.29</v>
+      </c>
+      <c r="Y12">
+        <v>1.65</v>
+      </c>
+      <c r="Z12">
+        <v>1.56</v>
+      </c>
+      <c r="AA12">
+        <v>1.31</v>
+      </c>
+      <c r="AB12">
+        <v>1.25</v>
+      </c>
+      <c r="AC12">
+        <v>1.25</v>
+      </c>
+      <c r="AD12">
+        <v>2.5</v>
+      </c>
+      <c r="AE12">
         <v>1.82</v>
       </c>
-      <c r="T12">
-        <v>1.98</v>
-      </c>
-      <c r="U12">
-        <v>1.7</v>
-      </c>
-      <c r="V12">
+      <c r="AF12">
+        <v>8</v>
+      </c>
+      <c r="AG12">
+        <v>2.33</v>
+      </c>
+      <c r="AH12">
+        <v>1.17</v>
+      </c>
+      <c r="AI12">
+        <v>4.5</v>
+      </c>
+      <c r="AJ12">
+        <v>1.36</v>
+      </c>
+      <c r="AK12">
+        <v>2.9</v>
+      </c>
+      <c r="AL12">
+        <v>1.67</v>
+      </c>
+      <c r="AM12">
+        <v>2.07</v>
+      </c>
+      <c r="AN12">
         <v>2.1</v>
       </c>
-      <c r="W12">
-        <v>1.33</v>
-      </c>
-      <c r="X12">
-        <v>1.25</v>
-      </c>
-      <c r="Y12">
-        <v>1.78</v>
-      </c>
-      <c r="Z12">
-        <v>1.29</v>
-      </c>
-      <c r="AA12">
-        <v>0.71</v>
-      </c>
-      <c r="AB12">
-        <v>1.28</v>
-      </c>
-      <c r="AC12">
-        <v>1.19</v>
-      </c>
-      <c r="AD12">
-        <v>2.47</v>
-      </c>
-      <c r="AE12">
-        <v>1.59</v>
-      </c>
-      <c r="AF12">
-        <v>9</v>
-      </c>
-      <c r="AG12">
+      <c r="AO12">
+        <v>1.65</v>
+      </c>
+      <c r="AP12">
         <v>2.77</v>
       </c>
-      <c r="AH12">
-        <v>1.15</v>
-      </c>
-      <c r="AI12">
-        <v>5</v>
-      </c>
-      <c r="AJ12">
-        <v>1.29</v>
-      </c>
-      <c r="AK12">
-        <v>3.4</v>
-      </c>
-      <c r="AL12">
-        <v>1.5</v>
-      </c>
-      <c r="AM12">
-        <v>2.47</v>
-      </c>
-      <c r="AN12">
-        <v>1.82</v>
-      </c>
-      <c r="AO12">
-        <v>1.92</v>
-      </c>
-      <c r="AP12">
-        <v>2.28</v>
-      </c>
       <c r="AQ12">
-        <v>1.59</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2231,7 +2231,7 @@
         <v>51</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
         <v>64</v>
@@ -2240,115 +2240,115 @@
         <v>82</v>
       </c>
       <c r="G13">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="H13">
+        <v>2.5</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>1.29</v>
+      </c>
+      <c r="K13">
+        <v>5.5</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>1.28</v>
+      </c>
+      <c r="N13">
+        <v>3.4</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>18.25</v>
+      </c>
+      <c r="Q13">
+        <v>1.2</v>
+      </c>
+      <c r="R13">
+        <v>4.65</v>
+      </c>
+      <c r="S13">
+        <v>1.62</v>
+      </c>
+      <c r="T13">
         <v>2.2</v>
       </c>
-      <c r="I13">
-        <v>4.5</v>
-      </c>
-      <c r="J13">
-        <v>1.73</v>
-      </c>
-      <c r="K13">
-        <v>3.45</v>
-      </c>
-      <c r="L13">
-        <v>3.95</v>
-      </c>
-      <c r="M13">
-        <v>1.4</v>
-      </c>
-      <c r="N13">
-        <v>2.75</v>
-      </c>
-      <c r="O13">
+      <c r="U13">
+        <v>1.9</v>
+      </c>
+      <c r="V13">
+        <v>1.8</v>
+      </c>
+      <c r="W13">
         <v>1.05</v>
       </c>
-      <c r="P13">
-        <v>11</v>
-      </c>
-      <c r="Q13">
-        <v>1.3</v>
-      </c>
-      <c r="R13">
+      <c r="X13">
+        <v>1.12</v>
+      </c>
+      <c r="Y13">
         <v>3.4</v>
       </c>
-      <c r="S13">
-        <v>1.92</v>
-      </c>
-      <c r="T13">
-        <v>1.88</v>
-      </c>
-      <c r="U13">
-        <v>1.8</v>
-      </c>
-      <c r="V13">
-        <v>1.91</v>
-      </c>
-      <c r="W13">
-        <v>1.22</v>
-      </c>
-      <c r="X13">
-        <v>1.22</v>
-      </c>
-      <c r="Y13">
-        <v>2</v>
-      </c>
       <c r="Z13">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="AA13">
-        <v>0.76</v>
+        <v>0.24</v>
       </c>
       <c r="AB13">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AC13">
-        <v>1.17</v>
+        <v>0.93</v>
       </c>
       <c r="AD13">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="AE13">
-        <v>1.75</v>
+        <v>1.11</v>
       </c>
       <c r="AF13">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AG13">
-        <v>2.43</v>
+        <v>8.15</v>
       </c>
       <c r="AH13">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AI13">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="AJ13">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AK13">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="AL13">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AM13">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="AN13">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="AO13">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AP13">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AQ13">
-        <v>1.41</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2362,7 +2362,7 @@
         <v>51</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
         <v>65</v>
@@ -2371,115 +2371,115 @@
         <v>83</v>
       </c>
       <c r="G14">
-        <v>2.39</v>
+        <v>2.5</v>
       </c>
       <c r="H14">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="I14">
-        <v>4.81</v>
+        <v>4.5</v>
       </c>
       <c r="J14">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="K14">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L14">
+        <v>4.5</v>
+      </c>
+      <c r="M14">
+        <v>1.38</v>
+      </c>
+      <c r="N14">
+        <v>2.8</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <v>1.29</v>
+      </c>
+      <c r="R14">
         <v>3.4</v>
       </c>
-      <c r="M14">
-        <v>1.36</v>
-      </c>
-      <c r="N14">
-        <v>3.2</v>
-      </c>
-      <c r="O14">
-        <v>1.02</v>
-      </c>
-      <c r="P14">
-        <v>10</v>
-      </c>
-      <c r="Q14">
-        <v>1.26</v>
-      </c>
-      <c r="R14">
-        <v>3.87</v>
-      </c>
       <c r="S14">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="T14">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="U14">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="V14">
         <v>2</v>
       </c>
       <c r="W14">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="X14">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="Y14">
         <v>2</v>
       </c>
       <c r="Z14">
+        <v>1.53</v>
+      </c>
+      <c r="AA14">
+        <v>0.65</v>
+      </c>
+      <c r="AB14">
+        <v>1.56</v>
+      </c>
+      <c r="AC14">
+        <v>1.33</v>
+      </c>
+      <c r="AD14">
+        <v>2.89</v>
+      </c>
+      <c r="AE14">
+        <v>1.45</v>
+      </c>
+      <c r="AF14">
+        <v>8.5</v>
+      </c>
+      <c r="AG14">
+        <v>3.2</v>
+      </c>
+      <c r="AH14">
+        <v>1.21</v>
+      </c>
+      <c r="AI14">
+        <v>4.2</v>
+      </c>
+      <c r="AJ14">
+        <v>1.39</v>
+      </c>
+      <c r="AK14">
+        <v>2.85</v>
+      </c>
+      <c r="AL14">
         <v>1.65</v>
       </c>
-      <c r="AA14">
-        <v>0.73</v>
-      </c>
-      <c r="AB14">
-        <v>1.6</v>
-      </c>
-      <c r="AC14">
-        <v>1.31</v>
-      </c>
-      <c r="AD14">
-        <v>2.91</v>
-      </c>
-      <c r="AE14">
-        <v>1.51</v>
-      </c>
-      <c r="AF14">
-        <v>9</v>
-      </c>
-      <c r="AG14">
-        <v>3.06</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>1.27</v>
-      </c>
-      <c r="AK14">
-        <v>3.4</v>
-      </c>
-      <c r="AL14">
-        <v>1.48</v>
-      </c>
       <c r="AM14">
-        <v>2.47</v>
+        <v>2.16</v>
       </c>
       <c r="AN14">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="AO14">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="AP14">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="AQ14">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2493,7 +2493,7 @@
         <v>51</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
         <v>66</v>
@@ -2502,115 +2502,115 @@
         <v>84</v>
       </c>
       <c r="G15">
-        <v>2.63</v>
+        <v>1.79</v>
       </c>
       <c r="H15">
-        <v>2.3</v>
+        <v>2.76</v>
       </c>
       <c r="I15">
-        <v>3.75</v>
+        <v>7.89</v>
       </c>
       <c r="J15">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="K15">
-        <v>3.7</v>
+        <v>5.25</v>
       </c>
       <c r="L15">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="N15">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O15">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P15">
         <v>10</v>
       </c>
       <c r="Q15">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="R15">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="S15">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="T15">
-        <v>2.17</v>
+        <v>2.38</v>
       </c>
       <c r="U15">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="V15">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="X15">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="Y15">
+        <v>3.2</v>
+      </c>
+      <c r="Z15">
+        <v>2.53</v>
+      </c>
+      <c r="AA15">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB15">
         <v>1.78</v>
       </c>
-      <c r="Z15">
-        <v>2.06</v>
-      </c>
-      <c r="AA15">
-        <v>1.24</v>
-      </c>
-      <c r="AB15">
-        <v>1.94</v>
-      </c>
       <c r="AC15">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="AD15">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="AE15">
-        <v>1.59</v>
+        <v>1.26</v>
       </c>
       <c r="AF15">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AG15">
-        <v>2.89</v>
+        <v>4.64</v>
       </c>
       <c r="AH15">
         <v>1.2</v>
       </c>
       <c r="AI15">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AJ15">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AK15">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="AL15">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AM15">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="AN15">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="AO15">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="AP15">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="AQ15">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2624,7 +2624,7 @@
         <v>51</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
         <v>67</v>
@@ -2633,115 +2633,115 @@
         <v>85</v>
       </c>
       <c r="G16">
-        <v>2.63</v>
+        <v>4.95</v>
       </c>
       <c r="H16">
+        <v>2.44</v>
+      </c>
+      <c r="I16">
+        <v>2.31</v>
+      </c>
+      <c r="J16">
+        <v>4.33</v>
+      </c>
+      <c r="K16">
+        <v>3.8</v>
+      </c>
+      <c r="L16">
+        <v>1.75</v>
+      </c>
+      <c r="M16">
+        <v>1.33</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>1.02</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>1.22</v>
+      </c>
+      <c r="R16">
+        <v>3.8</v>
+      </c>
+      <c r="S16">
+        <v>1.78</v>
+      </c>
+      <c r="T16">
+        <v>1.95</v>
+      </c>
+      <c r="U16">
+        <v>1.68</v>
+      </c>
+      <c r="V16">
+        <v>2.05</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <v>1.26</v>
+      </c>
+      <c r="Y16">
+        <v>1.23</v>
+      </c>
+      <c r="Z16">
+        <v>1.76</v>
+      </c>
+      <c r="AA16">
+        <v>2.24</v>
+      </c>
+      <c r="AB16">
+        <v>1.5</v>
+      </c>
+      <c r="AC16">
+        <v>1.39</v>
+      </c>
+      <c r="AD16">
+        <v>2.89</v>
+      </c>
+      <c r="AE16">
         <v>2.1</v>
-      </c>
-      <c r="I16">
-        <v>4.33</v>
-      </c>
-      <c r="J16">
-        <v>2.04</v>
-      </c>
-      <c r="K16">
-        <v>3.05</v>
-      </c>
-      <c r="L16">
-        <v>3.15</v>
-      </c>
-      <c r="M16">
-        <v>1.44</v>
-      </c>
-      <c r="N16">
-        <v>2.63</v>
-      </c>
-      <c r="O16">
-        <v>1.07</v>
-      </c>
-      <c r="P16">
-        <v>7.5</v>
-      </c>
-      <c r="Q16">
-        <v>1.36</v>
-      </c>
-      <c r="R16">
-        <v>3</v>
-      </c>
-      <c r="S16">
-        <v>2.13</v>
-      </c>
-      <c r="T16">
-        <v>1.63</v>
-      </c>
-      <c r="U16">
-        <v>1.83</v>
-      </c>
-      <c r="V16">
-        <v>1.83</v>
-      </c>
-      <c r="W16">
-        <v>1.28</v>
-      </c>
-      <c r="X16">
-        <v>1.25</v>
-      </c>
-      <c r="Y16">
-        <v>1.8</v>
-      </c>
-      <c r="Z16">
-        <v>1.8</v>
-      </c>
-      <c r="AA16">
-        <v>1.47</v>
-      </c>
-      <c r="AB16">
-        <v>1.38</v>
-      </c>
-      <c r="AC16">
-        <v>1.26</v>
-      </c>
-      <c r="AD16">
-        <v>2.64</v>
-      </c>
-      <c r="AE16">
-        <v>1.75</v>
       </c>
       <c r="AF16">
         <v>8</v>
       </c>
       <c r="AG16">
-        <v>2.52</v>
+        <v>1.91</v>
       </c>
       <c r="AH16">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AI16">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="AJ16">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AK16">
-        <v>2.27</v>
+        <v>2.8</v>
       </c>
       <c r="AL16">
-        <v>1.99</v>
+        <v>1.67</v>
       </c>
       <c r="AM16">
-        <v>1.73</v>
+        <v>2.13</v>
       </c>
       <c r="AN16">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="AO16">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="AP16">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="AQ16">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2755,7 +2755,7 @@
         <v>51</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
         <v>68</v>
@@ -2764,115 +2764,115 @@
         <v>86</v>
       </c>
       <c r="G17">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="H17">
-        <v>2.23</v>
+        <v>2.33</v>
       </c>
       <c r="I17">
-        <v>3.65</v>
+        <v>4.11</v>
       </c>
       <c r="J17">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="K17">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="L17">
-        <v>2.89</v>
+        <v>3.8</v>
       </c>
       <c r="M17">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>3.24</v>
       </c>
       <c r="O17">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q17">
         <v>1.25</v>
       </c>
       <c r="R17">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="S17">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="U17">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="V17">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="W17">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="X17">
+        <v>1.25</v>
+      </c>
+      <c r="Y17">
+        <v>1.78</v>
+      </c>
+      <c r="Z17">
         <v>1.29</v>
       </c>
-      <c r="Y17">
-        <v>1.65</v>
-      </c>
-      <c r="Z17">
-        <v>1.56</v>
-      </c>
       <c r="AA17">
-        <v>1.31</v>
+        <v>0.71</v>
       </c>
       <c r="AB17">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AC17">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AD17">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AE17">
+        <v>1.59</v>
+      </c>
+      <c r="AF17">
+        <v>9</v>
+      </c>
+      <c r="AG17">
+        <v>2.77</v>
+      </c>
+      <c r="AH17">
+        <v>1.15</v>
+      </c>
+      <c r="AI17">
+        <v>5</v>
+      </c>
+      <c r="AJ17">
+        <v>1.29</v>
+      </c>
+      <c r="AK17">
+        <v>3.4</v>
+      </c>
+      <c r="AL17">
+        <v>1.5</v>
+      </c>
+      <c r="AM17">
+        <v>2.47</v>
+      </c>
+      <c r="AN17">
         <v>1.82</v>
       </c>
-      <c r="AF17">
-        <v>8</v>
-      </c>
-      <c r="AG17">
-        <v>2.33</v>
-      </c>
-      <c r="AH17">
-        <v>1.17</v>
-      </c>
-      <c r="AI17">
-        <v>4.5</v>
-      </c>
-      <c r="AJ17">
-        <v>1.36</v>
-      </c>
-      <c r="AK17">
-        <v>2.9</v>
-      </c>
-      <c r="AL17">
-        <v>1.67</v>
-      </c>
-      <c r="AM17">
-        <v>2.07</v>
-      </c>
-      <c r="AN17">
-        <v>2.1</v>
-      </c>
       <c r="AO17">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="AP17">
-        <v>2.77</v>
+        <v>2.28</v>
       </c>
       <c r="AQ17">
-        <v>1.39</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="18" spans="1:43">
@@ -2886,7 +2886,7 @@
         <v>51</v>
       </c>
       <c r="D18">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
         <v>69</v>
@@ -2895,120 +2895,120 @@
         <v>87</v>
       </c>
       <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>2.2</v>
+      </c>
+      <c r="I18">
+        <v>3.5</v>
+      </c>
+      <c r="J18">
+        <v>2.55</v>
+      </c>
+      <c r="K18">
+        <v>3.4</v>
+      </c>
+      <c r="L18">
+        <v>2.63</v>
+      </c>
+      <c r="M18">
+        <v>1.4</v>
+      </c>
+      <c r="N18">
+        <v>2.75</v>
+      </c>
+      <c r="O18">
+        <v>1.05</v>
+      </c>
+      <c r="P18">
+        <v>11</v>
+      </c>
+      <c r="Q18">
+        <v>1.25</v>
+      </c>
+      <c r="R18">
+        <v>3.75</v>
+      </c>
+      <c r="S18">
         <v>1.91</v>
       </c>
-      <c r="H18">
-        <v>2.5</v>
-      </c>
-      <c r="I18">
-        <v>6.5</v>
-      </c>
-      <c r="J18">
-        <v>1.41</v>
-      </c>
-      <c r="K18">
-        <v>4.6</v>
-      </c>
-      <c r="L18">
-        <v>7.43</v>
-      </c>
-      <c r="M18">
+      <c r="T18">
+        <v>1.83</v>
+      </c>
+      <c r="U18">
+        <v>1.7</v>
+      </c>
+      <c r="V18">
+        <v>2.05</v>
+      </c>
+      <c r="W18">
+        <v>1.36</v>
+      </c>
+      <c r="X18">
+        <v>1.31</v>
+      </c>
+      <c r="Y18">
+        <v>1.57</v>
+      </c>
+      <c r="Z18">
         <v>1.29</v>
       </c>
-      <c r="N18">
-        <v>3.5</v>
-      </c>
-      <c r="O18">
-        <v>1.02</v>
-      </c>
-      <c r="P18">
-        <v>12</v>
-      </c>
-      <c r="Q18">
-        <v>1.14</v>
-      </c>
-      <c r="R18">
-        <v>4.55</v>
-      </c>
-      <c r="S18">
-        <v>1.57</v>
-      </c>
-      <c r="T18">
-        <v>2.35</v>
-      </c>
-      <c r="U18">
-        <v>1.75</v>
-      </c>
-      <c r="V18">
-        <v>2</v>
-      </c>
-      <c r="W18">
-        <v>1.09</v>
-      </c>
-      <c r="X18">
-        <v>1.17</v>
-      </c>
-      <c r="Y18">
-        <v>2.95</v>
-      </c>
-      <c r="Z18">
-        <v>1.94</v>
-      </c>
       <c r="AA18">
-        <v>1.18</v>
+        <v>0.83</v>
       </c>
       <c r="AB18">
-        <v>1.68</v>
+        <v>1.38</v>
       </c>
       <c r="AC18">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="AD18">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="AE18">
-        <v>1.23</v>
+        <v>1.64</v>
       </c>
       <c r="AF18">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AG18">
-        <v>5.15</v>
+        <v>2.66</v>
       </c>
       <c r="AH18">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AI18">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="AJ18">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AK18">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AL18">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
       <c r="AM18">
-        <v>1.98</v>
+        <v>2.37</v>
       </c>
       <c r="AN18">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="AO18">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="AP18">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="AQ18">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="19" spans="1:43">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2">
         <v>45356</v>
@@ -3035,13 +3035,13 @@
         <v>5.5</v>
       </c>
       <c r="J19">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="K19">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L19">
-        <v>5.71</v>
+        <v>6</v>
       </c>
       <c r="M19">
         <v>1.36</v>
@@ -3062,10 +3062,10 @@
         <v>4</v>
       </c>
       <c r="S19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="U19">
         <v>1.85</v>

--- a/Jogos_do_Dia/2024-03-05_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-05_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -856,10 +856,10 @@
         <v>1.7</v>
       </c>
       <c r="Z2">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AA2">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AB2">
         <v>1.53</v>
@@ -933,7 +933,7 @@
         <v>2.75</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="I3">
         <v>4.33</v>
@@ -942,10 +942,10 @@
         <v>2.05</v>
       </c>
       <c r="K3">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M3">
         <v>1.42</v>
@@ -966,16 +966,16 @@
         <v>3.1</v>
       </c>
       <c r="S3">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="T3">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V3">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W3">
         <v>1.18</v>
@@ -987,10 +987,10 @@
         <v>1.85</v>
       </c>
       <c r="Z3">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AA3">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AB3">
         <v>1.36</v>
@@ -1118,10 +1118,10 @@
         <v>2.91</v>
       </c>
       <c r="Z4">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AA4">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AB4">
         <v>1.58</v>
